--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Mcam</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H2">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I2">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J2">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.5747265422437</v>
+        <v>87.038094</v>
       </c>
       <c r="N2">
-        <v>63.5747265422437</v>
+        <v>261.114282</v>
       </c>
       <c r="O2">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="P2">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="Q2">
-        <v>116.891487210303</v>
+        <v>173.278657944678</v>
       </c>
       <c r="R2">
-        <v>116.891487210303</v>
+        <v>1559.507921502102</v>
       </c>
       <c r="S2">
-        <v>0.08616746981883278</v>
+        <v>0.08277473093236357</v>
       </c>
       <c r="T2">
-        <v>0.08616746981883278</v>
+        <v>0.08277473093236357</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H3">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I3">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J3">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.09326067043922</v>
+        <v>2.255465</v>
       </c>
       <c r="N3">
-        <v>2.09326067043922</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O3">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="P3">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="Q3">
-        <v>3.848767681664981</v>
+        <v>4.490263174204999</v>
       </c>
       <c r="R3">
-        <v>3.848767681664981</v>
+        <v>40.412368567845</v>
       </c>
       <c r="S3">
-        <v>0.002837149059904637</v>
+        <v>0.002144986176999273</v>
       </c>
       <c r="T3">
-        <v>0.002837149059904637</v>
+        <v>0.002144986176999274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H4">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I4">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J4">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.474451333127374</v>
+        <v>0.5269253333333334</v>
       </c>
       <c r="N4">
-        <v>0.474451333127374</v>
+        <v>1.580776</v>
       </c>
       <c r="O4">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="P4">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="Q4">
-        <v>0.8723485723736211</v>
+        <v>1.049022449837334</v>
       </c>
       <c r="R4">
-        <v>0.8723485723736211</v>
+        <v>9.441202048536001</v>
       </c>
       <c r="S4">
-        <v>0.0006430585415195265</v>
+        <v>0.000501115094364459</v>
       </c>
       <c r="T4">
-        <v>0.0006430585415195265</v>
+        <v>0.000501115094364459</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H5">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I5">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J5">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.2475867472051</v>
+        <v>28.247359</v>
       </c>
       <c r="N5">
-        <v>18.2475867472051</v>
+        <v>84.74207700000001</v>
       </c>
       <c r="O5">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="P5">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="Q5">
-        <v>33.5508726327357</v>
+        <v>56.23588744948301</v>
       </c>
       <c r="R5">
-        <v>33.5508726327357</v>
+        <v>506.1229870453471</v>
       </c>
       <c r="S5">
-        <v>0.02473228696094422</v>
+        <v>0.02686372636761644</v>
       </c>
       <c r="T5">
-        <v>0.02473228696094422</v>
+        <v>0.02686372636761645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H6">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I6">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J6">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.5747265422437</v>
+        <v>87.038094</v>
       </c>
       <c r="N6">
-        <v>63.5747265422437</v>
+        <v>261.114282</v>
       </c>
       <c r="O6">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="P6">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="Q6">
-        <v>683.4601728366179</v>
+        <v>994.64116502608</v>
       </c>
       <c r="R6">
-        <v>683.4601728366179</v>
+        <v>8951.770485234721</v>
       </c>
       <c r="S6">
-        <v>0.5038179872698433</v>
+        <v>0.4751373064972141</v>
       </c>
       <c r="T6">
-        <v>0.5038179872698433</v>
+        <v>0.4751373064972141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H7">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I7">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J7">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.09326067043922</v>
+        <v>2.255465</v>
       </c>
       <c r="N7">
-        <v>2.09326067043922</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O7">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="P7">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="Q7">
-        <v>22.50360131175474</v>
+        <v>25.77467212546666</v>
       </c>
       <c r="R7">
-        <v>22.50360131175474</v>
+        <v>231.9720491292</v>
       </c>
       <c r="S7">
-        <v>0.0165887049016411</v>
+        <v>0.0123124888855992</v>
       </c>
       <c r="T7">
-        <v>0.0165887049016411</v>
+        <v>0.01231248888559921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H8">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I8">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J8">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.474451333127374</v>
+        <v>0.5269253333333334</v>
       </c>
       <c r="N8">
-        <v>0.474451333127374</v>
+        <v>1.580776</v>
       </c>
       <c r="O8">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="P8">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="Q8">
-        <v>5.100589617579102</v>
+        <v>6.021520041884445</v>
       </c>
       <c r="R8">
-        <v>5.100589617579102</v>
+        <v>54.19368037696</v>
       </c>
       <c r="S8">
-        <v>0.003759939345628073</v>
+        <v>0.00287646330588474</v>
       </c>
       <c r="T8">
-        <v>0.003759939345628073</v>
+        <v>0.00287646330588474</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H9">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I9">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J9">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.2475867472051</v>
+        <v>28.247359</v>
       </c>
       <c r="N9">
-        <v>18.2475867472051</v>
+        <v>84.74207700000001</v>
       </c>
       <c r="O9">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="P9">
-        <v>0.216229189218117</v>
+        <v>0.2392468448860462</v>
       </c>
       <c r="Q9">
-        <v>196.1707028941603</v>
+        <v>322.8010262342134</v>
       </c>
       <c r="R9">
-        <v>196.1707028941603</v>
+        <v>2905.20923610792</v>
       </c>
       <c r="S9">
-        <v>0.1446087608634845</v>
+        <v>0.1542011486478534</v>
       </c>
       <c r="T9">
-        <v>0.1446087608634845</v>
+        <v>0.1542011486478534</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.48575713161443</v>
+        <v>0.2266433333333333</v>
       </c>
       <c r="H10">
-        <v>3.48575713161443</v>
+        <v>0.67993</v>
       </c>
       <c r="I10">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="J10">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.5747265422437</v>
+        <v>87.038094</v>
       </c>
       <c r="N10">
-        <v>63.5747265422437</v>
+        <v>261.114282</v>
       </c>
       <c r="O10">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="P10">
-        <v>0.7533440868337494</v>
+        <v>0.7371871251537216</v>
       </c>
       <c r="Q10">
-        <v>221.6060564350632</v>
+        <v>19.72660375114</v>
       </c>
       <c r="R10">
-        <v>221.6060564350632</v>
+        <v>177.53943376026</v>
       </c>
       <c r="S10">
-        <v>0.1633586297450733</v>
+        <v>0.009423343515456388</v>
       </c>
       <c r="T10">
-        <v>0.1633586297450733</v>
+        <v>0.009423343515456388</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.48575713161443</v>
+        <v>0.2266433333333333</v>
       </c>
       <c r="H11">
-        <v>3.48575713161443</v>
+        <v>0.67993</v>
       </c>
       <c r="I11">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="J11">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.09326067043922</v>
+        <v>2.255465</v>
       </c>
       <c r="N11">
-        <v>2.09326067043922</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O11">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="P11">
-        <v>0.02480459821135366</v>
+        <v>0.01910312695076754</v>
       </c>
       <c r="Q11">
-        <v>7.296598310311515</v>
+        <v>0.5111861058166666</v>
       </c>
       <c r="R11">
-        <v>7.296598310311515</v>
+        <v>4.600674952349999</v>
       </c>
       <c r="S11">
-        <v>0.005378744249807921</v>
+        <v>0.0002441921750043014</v>
       </c>
       <c r="T11">
-        <v>0.005378744249807921</v>
+        <v>0.0002441921750043015</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.48575713161443</v>
+        <v>0.2266433333333333</v>
       </c>
       <c r="H12">
-        <v>3.48575713161443</v>
+        <v>0.67993</v>
       </c>
       <c r="I12">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="J12">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.474451333127374</v>
+        <v>0.5269253333333334</v>
       </c>
       <c r="N12">
-        <v>0.474451333127374</v>
+        <v>1.580776</v>
       </c>
       <c r="O12">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="P12">
-        <v>0.005622125736779964</v>
+        <v>0.004462903009464643</v>
       </c>
       <c r="Q12">
-        <v>1.653822118052718</v>
+        <v>0.1194241139644445</v>
       </c>
       <c r="R12">
-        <v>1.653822118052718</v>
+        <v>1.07481702568</v>
       </c>
       <c r="S12">
-        <v>0.001219127849632363</v>
+        <v>5.704856568890816E-05</v>
       </c>
       <c r="T12">
-        <v>0.001219127849632363</v>
+        <v>5.704856568890816E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2266433333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.67993</v>
+      </c>
+      <c r="I13">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="J13">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>28.247359</v>
+      </c>
+      <c r="N13">
+        <v>84.74207700000001</v>
+      </c>
+      <c r="O13">
+        <v>0.2392468448860462</v>
+      </c>
+      <c r="P13">
+        <v>0.2392468448860462</v>
+      </c>
+      <c r="Q13">
+        <v>6.402075601623334</v>
+      </c>
+      <c r="R13">
+        <v>57.61868041461001</v>
+      </c>
+      <c r="S13">
+        <v>0.003058253633879192</v>
+      </c>
+      <c r="T13">
+        <v>0.003058253633879192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H14">
+        <v>12.255448</v>
+      </c>
+      <c r="I14">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J14">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>87.038094</v>
+      </c>
+      <c r="N14">
+        <v>261.114282</v>
+      </c>
+      <c r="O14">
+        <v>0.7371871251537216</v>
+      </c>
+      <c r="P14">
+        <v>0.7371871251537216</v>
+      </c>
+      <c r="Q14">
+        <v>355.563611678704</v>
+      </c>
+      <c r="R14">
+        <v>3200.072505108336</v>
+      </c>
+      <c r="S14">
+        <v>0.1698517442086876</v>
+      </c>
+      <c r="T14">
+        <v>0.1698517442086876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H15">
+        <v>12.255448</v>
+      </c>
+      <c r="I15">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J15">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.255465</v>
+      </c>
+      <c r="N15">
+        <v>6.766394999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.01910312695076754</v>
+      </c>
+      <c r="P15">
+        <v>0.01910312695076754</v>
+      </c>
+      <c r="Q15">
+        <v>9.213911341106664</v>
+      </c>
+      <c r="R15">
+        <v>82.92520206995999</v>
+      </c>
+      <c r="S15">
+        <v>0.004401459713164761</v>
+      </c>
+      <c r="T15">
+        <v>0.004401459713164762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.48575713161443</v>
-      </c>
-      <c r="H13">
-        <v>3.48575713161443</v>
-      </c>
-      <c r="I13">
-        <v>0.2168446432382017</v>
-      </c>
-      <c r="J13">
-        <v>0.2168446432382017</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>18.2475867472051</v>
-      </c>
-      <c r="N13">
-        <v>18.2475867472051</v>
-      </c>
-      <c r="O13">
-        <v>0.216229189218117</v>
-      </c>
-      <c r="P13">
-        <v>0.216229189218117</v>
-      </c>
-      <c r="Q13">
-        <v>63.60665563882314</v>
-      </c>
-      <c r="R13">
-        <v>63.60665563882314</v>
-      </c>
-      <c r="S13">
-        <v>0.04688814139368819</v>
-      </c>
-      <c r="T13">
-        <v>0.04688814139368819</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H16">
+        <v>12.255448</v>
+      </c>
+      <c r="I16">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J16">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5269253333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.580776</v>
+      </c>
+      <c r="O16">
+        <v>0.004462903009464643</v>
+      </c>
+      <c r="P16">
+        <v>0.004462903009464643</v>
+      </c>
+      <c r="Q16">
+        <v>2.152568674183111</v>
+      </c>
+      <c r="R16">
+        <v>19.373118067648</v>
+      </c>
+      <c r="S16">
+        <v>0.001028276043526537</v>
+      </c>
+      <c r="T16">
+        <v>0.001028276043526537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H17">
+        <v>12.255448</v>
+      </c>
+      <c r="I17">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J17">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>28.247359</v>
+      </c>
+      <c r="N17">
+        <v>84.74207700000001</v>
+      </c>
+      <c r="O17">
+        <v>0.2392468448860462</v>
+      </c>
+      <c r="P17">
+        <v>0.2392468448860462</v>
+      </c>
+      <c r="Q17">
+        <v>115.3946797872773</v>
+      </c>
+      <c r="R17">
+        <v>1038.552118085496</v>
+      </c>
+      <c r="S17">
+        <v>0.05512371623669711</v>
+      </c>
+      <c r="T17">
+        <v>0.05512371623669712</v>
       </c>
     </row>
   </sheetData>
